--- a/data/trans_bre/POLIPATOLOGIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,42</t>
+          <t>2,98; 8,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,52</t>
+          <t>3,69; 10,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 9,14</t>
+          <t>2,59; 9,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 16,04</t>
+          <t>-0,2; 16,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,1; 580,84</t>
+          <t>79,61; 577,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,8; 572,68</t>
+          <t>82,89; 574,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,84; 362,18</t>
+          <t>46,81; 381,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 215,44</t>
+          <t>-4,74; 222,19</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,62</t>
+          <t>7,25; 13,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,65</t>
+          <t>1,31; 8,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,66</t>
+          <t>2,59; 9,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 22,0</t>
+          <t>7,18; 22,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>119,5; 401,0</t>
+          <t>115,1; 402,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,75; 136,36</t>
+          <t>13,68; 139,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,55; 214,19</t>
+          <t>30,57; 199,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,22; 230,85</t>
+          <t>46,78; 238,7</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,73</t>
+          <t>5,23; 12,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,4</t>
+          <t>9,36; 17,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,68</t>
+          <t>3,51; 10,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 16,01</t>
+          <t>6,45; 16,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,16; 159,17</t>
+          <t>44,91; 163,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,67; 204,47</t>
+          <t>77,46; 208,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,37; 139,25</t>
+          <t>30,98; 138,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,54; 128,26</t>
+          <t>39,61; 131,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 18,23</t>
+          <t>8,07; 18,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 21,58</t>
+          <t>11,79; 21,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 15,13</t>
+          <t>5,13; 15,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 21,51</t>
+          <t>9,06; 21,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,63; 135,06</t>
+          <t>44,53; 139,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,1; 154,58</t>
+          <t>61,13; 151,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 79,16</t>
+          <t>20,78; 77,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 90,69</t>
+          <t>27,51; 88,99</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 15,7</t>
+          <t>2,8; 16,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 27,8</t>
+          <t>12,77; 26,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 24,01</t>
+          <t>11,07; 24,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 13,79</t>
+          <t>4,5; 14,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 40,53</t>
+          <t>6,41; 43,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,73; 76,44</t>
+          <t>28,74; 72,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,72; 73,12</t>
+          <t>27,73; 74,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 31,31</t>
+          <t>8,97; 33,49</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 22,23</t>
+          <t>11,66; 22,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,95</t>
+          <t>2,97; 12,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 16,09</t>
+          <t>6,19; 16,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,64; 21,2</t>
+          <t>10,88; 22,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,72; 39,82</t>
+          <t>18,65; 39,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 16,34</t>
+          <t>3,66; 16,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 26,3</t>
+          <t>9,12; 27,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,05; 33,04</t>
+          <t>16,19; 35,45</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,64; 16,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,66</t>
+          <t>12,31; 16,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,4</t>
+          <t>10,11; 14,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,97; 20,14</t>
+          <t>11,99; 20,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>55,85; 85,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,18; 71,8</t>
+          <t>48,57; 72,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,48; 62,95</t>
+          <t>40,53; 63,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,31; 64,19</t>
+          <t>35,05; 64,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,26</t>
+          <t>2,73; 8,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,53</t>
+          <t>3,93; 10,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,43</t>
+          <t>2,56; 9,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,61; 577,61</t>
+          <t>65,35; 571,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,89; 574,06</t>
+          <t>84,14; 524,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,81; 381,58</t>
+          <t>46,91; 387,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 13,65</t>
+          <t>7,56; 13,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,21</t>
+          <t>1,16; 7,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,35</t>
+          <t>2,57; 9,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>115,1; 402,53</t>
+          <t>131,23; 401,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 139,25</t>
+          <t>12,88; 131,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,57; 199,81</t>
+          <t>34,12; 215,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,94</t>
+          <t>5,44; 12,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 17,56</t>
+          <t>9,2; 16,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,81</t>
+          <t>3,72; 11,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,91; 163,72</t>
+          <t>48,0; 162,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,46; 208,91</t>
+          <t>73,32; 202,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,98; 138,91</t>
+          <t>32,35; 149,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 18,76</t>
+          <t>7,97; 18,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 21,49</t>
+          <t>11,79; 21,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 15,01</t>
+          <t>4,97; 15,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,53; 139,59</t>
+          <t>42,73; 138,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,13; 151,36</t>
+          <t>64,06; 153,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,78; 77,91</t>
+          <t>19,89; 77,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 16,55</t>
+          <t>2,61; 16,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 26,77</t>
+          <t>12,6; 27,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 24,81</t>
+          <t>11,4; 24,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 43,11</t>
+          <t>5,75; 42,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,74; 72,96</t>
+          <t>28,05; 73,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,73; 74,0</t>
+          <t>28,3; 72,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,66; 22,34</t>
+          <t>11,06; 22,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 12,09</t>
+          <t>2,66; 12,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,76</t>
+          <t>6,08; 16,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,65; 39,84</t>
+          <t>17,7; 40,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 16,6</t>
+          <t>3,31; 16,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,12; 27,56</t>
+          <t>9,1; 26,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,0</t>
+          <t>11,33; 15,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,31; 16,85</t>
+          <t>12,05; 16,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,47</t>
+          <t>9,97; 14,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,85; 85,4</t>
+          <t>54,26; 84,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,57; 72,36</t>
+          <t>47,72; 71,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,53; 63,04</t>
+          <t>39,94; 64,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 8,33</t>
+          <t>3,04; 8,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,43</t>
+          <t>3,9; 10,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,86</t>
+          <t>2,52; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 16,03</t>
+          <t>-0,28; 16,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,35; 571,96</t>
+          <t>76,1; 580,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,14; 524,88</t>
+          <t>85,8; 572,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,91; 387,55</t>
+          <t>34,84; 362,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 222,19</t>
+          <t>-6,24; 215,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 13,84</t>
+          <t>7,36; 13,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,55</t>
+          <t>1,23; 7,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,6</t>
+          <t>2,69; 9,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 22,05</t>
+          <t>7,08; 22,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>131,23; 401,0</t>
+          <t>119,5; 401,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 131,85</t>
+          <t>15,75; 136,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,12; 215,24</t>
+          <t>34,55; 214,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,78; 238,7</t>
+          <t>44,22; 230,85</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,75</t>
+          <t>4,9; 12,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 16,97</t>
+          <t>9,1; 17,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,07</t>
+          <t>3,51; 10,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,22</t>
+          <t>6,4; 16,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,0; 162,99</t>
+          <t>45,16; 159,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,32; 202,87</t>
+          <t>71,67; 204,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 149,01</t>
+          <t>30,37; 139,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,61; 131,19</t>
+          <t>38,54; 128,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 18,32</t>
+          <t>7,39; 18,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 21,93</t>
+          <t>11,65; 21,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 15,06</t>
+          <t>4,82; 15,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 21,05</t>
+          <t>9,05; 21,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,73; 138,05</t>
+          <t>40,63; 135,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,06; 153,71</t>
+          <t>61,1; 154,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,89; 77,97</t>
+          <t>20,2; 79,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,51; 88,99</t>
+          <t>28,53; 90,69</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 16,66</t>
+          <t>2,61; 15,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 27,06</t>
+          <t>13,62; 27,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,4; 24,06</t>
+          <t>10,67; 24,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 14,39</t>
+          <t>3,96; 13,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 42,85</t>
+          <t>5,49; 40,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,05; 73,45</t>
+          <t>30,73; 76,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,3; 72,34</t>
+          <t>26,72; 73,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 33,49</t>
+          <t>7,89; 31,31</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,06; 22,49</t>
+          <t>11,15; 22,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,04</t>
+          <t>2,28; 11,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,08; 16,22</t>
+          <t>6,14; 16,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,88; 22,42</t>
+          <t>10,64; 21,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,7; 40,3</t>
+          <t>17,72; 39,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 16,44</t>
+          <t>2,89; 16,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,1; 26,51</t>
+          <t>9,3; 26,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,19; 35,45</t>
+          <t>16,05; 33,04</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,8</t>
+          <t>11,49; 15,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,05; 16,58</t>
+          <t>12,27; 16,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,97; 14,6</t>
+          <t>10,1; 14,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,99; 20,78</t>
+          <t>11,97; 20,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,26; 84,4</t>
+          <t>55,13; 84,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,72; 71,85</t>
+          <t>48,18; 71,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,94; 64,93</t>
+          <t>40,48; 62,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,05; 64,17</t>
+          <t>35,31; 64,19</t>
         </is>
       </c>
     </row>
